--- a/pdf/Student_Data_Normalisation_Task.xlsx
+++ b/pdf/Student_Data_Normalisation_Task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c72f08542cddc36/Documents/Data Science/Module 3 - Big Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A726C6EB-2C8B-4202-85AE-459BA794B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A726C6EB-2C8B-4202-85AE-459BA794B14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3024F0F8-FC29-4CCD-9568-E0976A3627A8}"/>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="4245" windowWidth="26025" windowHeight="14565" xr2:uid="{19FDF363-F5B7-4F53-B56A-113C3C8DD361}"/>
+    <workbookView xWindow="13170" yWindow="4590" windowWidth="26025" windowHeight="14565" xr2:uid="{19FDF363-F5B7-4F53-B56A-113C3C8DD361}"/>
   </bookViews>
   <sheets>
     <sheet name="Task overview" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>Student Number  </t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Cheuk</t>
+  </si>
+  <si>
+    <t>Unit 7 - Dean Carey, September 2025</t>
   </si>
 </sst>
 </file>
@@ -266,18 +269,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BE57C9-14B9-4159-BDE1-84502BD839E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,8 +605,13 @@
     <col min="1" max="1" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -658,19 +666,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>1001</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>78</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>37128</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -684,11 +692,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
@@ -700,11 +708,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
@@ -716,19 +724,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>1002</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>55</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>36435</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -742,11 +750,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
@@ -758,11 +766,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
@@ -774,19 +782,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="8">
         <v>1003</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>90</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>34855</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -800,11 +808,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
@@ -816,11 +824,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
@@ -832,19 +840,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>1004</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>70</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>29436</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -858,11 +866,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
@@ -874,11 +882,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
@@ -890,19 +898,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>1005</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>37377</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -916,11 +924,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
@@ -932,11 +940,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,31 +957,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -994,19 +1002,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1017,10 +1025,10 @@
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>37128</v>
       </c>
       <c r="E2" t="s">
@@ -1034,10 +1042,10 @@
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>36435</v>
       </c>
       <c r="E3" t="s">
@@ -1051,10 +1059,10 @@
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>34855</v>
       </c>
       <c r="E4" t="s">
@@ -1068,10 +1076,10 @@
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>29436</v>
       </c>
       <c r="E5" t="s">
@@ -1085,10 +1093,10 @@
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>37377</v>
       </c>
       <c r="E6" t="s">
@@ -1114,13 +1122,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1198,13 +1206,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
